--- a/biology/Médecine/Bridge_(chirurgie_dentaire)/Bridge_(chirurgie_dentaire).xlsx
+++ b/biology/Médecine/Bridge_(chirurgie_dentaire)/Bridge_(chirurgie_dentaire).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un bridge ou pont dentaire au Québec et Nouveau-Brunswick ou prothèse partielle fixe[1] est une prothèse dentaire formant un pont entre deux dents.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un bridge ou pont dentaire au Québec et Nouveau-Brunswick ou prothèse partielle fixe est une prothèse dentaire formant un pont entre deux dents.
 Le bridge permet de remplacer une dent absente, voire deux, en s'appuyant sur les dents adjacentes (une de chaque côté) ; au-delà le risque de fracture est trop élevé. Mais on peut également réaliser un bridge de plus grande portée, en prenant appui sur plusieurs dents piliers. Le principe est le même que pour la couronne.
 Il peut être ainsi constitué de 3 matériaux :
 métal (solidité) ;
